--- a/data/trans_orig/P37AS2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3F8576DF-E355-493B-9B68-BC09F6481A2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1FC5004-7DC2-4925-8DD1-2166FBA1612E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C8DEAF41-AF19-4CE9-8D7E-F365B5361F50}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E83CB786-F24A-43D1-A704-FD0B12FECEA9}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="72">
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -157,22 +157,22 @@
     <t>14,56%</t>
   </si>
   <si>
-    <t>65,38%</t>
+    <t>58,55%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>46,14%</t>
+    <t>45,54%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>14,22%</t>
+    <t>15,74%</t>
   </si>
   <si>
-    <t>85,88%</t>
+    <t>86,09%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -181,19 +181,22 @@
     <t>66,91%</t>
   </si>
   <si>
-    <t>33,93%</t>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>72,79%</t>
+    <t>72,64%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>56,28%</t>
+    <t>56,96%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -662,7 +665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{610F387D-A564-494E-8AF0-6A712B169E39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14813BD7-5952-4300-84BB-4AD3A45129CE}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2850,7 +2853,7 @@
         <v>47</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -2865,13 +2868,13 @@
         <v>1883</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -2895,13 +2898,13 @@
         <v>1883</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="P47" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,7 +2960,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -2981,7 +2984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92F6C89-CF73-453A-BAF5-A971D53FBE05}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0C176C-5A55-4239-879C-0D2029BCC23B}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2998,7 +3001,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3907,7 +3910,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>21</v>
@@ -3935,7 +3938,7 @@
         <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>21</v>
@@ -5027,7 +5030,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -5057,7 +5060,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,7 +5081,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -5108,7 +5111,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,7 +5129,7 @@
         <v>19</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>21</v>
@@ -5156,7 +5159,7 @@
         <v>19</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>21</v>
@@ -5180,7 +5183,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -5210,7 +5213,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5266,7 +5269,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -5290,7 +5293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA749AB0-74C2-4B9A-8CDE-CC6D88C30F50}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FFB8A8-92A8-4323-A6DD-17B0D5FDF84F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5307,7 +5310,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6165,7 +6168,7 @@
         <v>881</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
@@ -6267,7 +6270,7 @@
         <v>901</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
@@ -7340,7 +7343,7 @@
         <v>1054</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
@@ -7370,13 +7373,13 @@
         <v>2981</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,7 +7400,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -7427,7 +7430,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7442,7 +7445,7 @@
         <v>2731</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
@@ -7472,13 +7475,13 @@
         <v>2731</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7499,7 +7502,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -7529,7 +7532,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,7 +7588,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37AS2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Provincia-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D1FC5004-7DC2-4925-8DD1-2166FBA1612E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{81A26EC7-DFC0-4B2C-9762-742806F37F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E83CB786-F24A-43D1-A704-FD0B12FECEA9}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D3799CD0-C83D-4F78-B19E-169C1F5105E5}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -157,22 +157,22 @@
     <t>14,56%</t>
   </si>
   <si>
-    <t>58,55%</t>
+    <t>66,09%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>45,54%</t>
+    <t>45,89%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>15,74%</t>
+    <t>14,53%</t>
   </si>
   <si>
-    <t>86,09%</t>
+    <t>85,93%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -181,22 +181,22 @@
     <t>66,91%</t>
   </si>
   <si>
-    <t>31,98%</t>
+    <t>33,71%</t>
   </si>
   <si>
-    <t>89,61%</t>
+    <t>89,57%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>72,64%</t>
+    <t>72,59%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>56,96%</t>
+    <t>56,71%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -220,7 +220,7 @@
     <t>79,25%</t>
   </si>
   <si>
-    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2015 (Tasa respuesta: 0,09%)</t>
+    <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2016 (Tasa respuesta: 0,09%)</t>
   </si>
   <si>
     <t>49,43%</t>
@@ -235,7 +235,7 @@
     <t>52,19%</t>
   </si>
   <si>
-    <t>16,0%</t>
+    <t>15,92%</t>
   </si>
   <si>
     <t>84,98%</t>
@@ -253,7 +253,7 @@
     <t>15,02%</t>
   </si>
   <si>
-    <t>84,0%</t>
+    <t>84,08%</t>
   </si>
 </sst>
 </file>
@@ -665,7 +665,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14813BD7-5952-4300-84BB-4AD3A45129CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42CA22F-F245-44DF-8C00-06301B5B913D}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2984,7 +2984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B0C176C-5A55-4239-879C-0D2029BCC23B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591777C8-6585-49FB-AE4B-29F17820D341}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5293,7 +5293,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31FFB8A8-92A8-4323-A6DD-17B0D5FDF84F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811CC315-C3BC-47DE-82C5-DF8FF9A665E7}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P37AS2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{81A26EC7-DFC0-4B2C-9762-742806F37F66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DF9BB72-3B6E-4C61-ACF5-BA698D66DE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D3799CD0-C83D-4F78-B19E-169C1F5105E5}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B6FF04C-E6A1-48B2-AD97-00D571D46182}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="71">
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -157,22 +157,22 @@
     <t>14,56%</t>
   </si>
   <si>
-    <t>66,09%</t>
+    <t>65,38%</t>
   </si>
   <si>
     <t>11,05%</t>
   </si>
   <si>
-    <t>45,89%</t>
+    <t>46,14%</t>
   </si>
   <si>
     <t>56,37%</t>
   </si>
   <si>
-    <t>14,53%</t>
+    <t>14,22%</t>
   </si>
   <si>
-    <t>85,93%</t>
+    <t>85,88%</t>
   </si>
   <si>
     <t>43,07%</t>
@@ -181,22 +181,19 @@
     <t>66,91%</t>
   </si>
   <si>
-    <t>33,71%</t>
-  </si>
-  <si>
-    <t>89,57%</t>
+    <t>33,93%</t>
   </si>
   <si>
     <t>29,06%</t>
   </si>
   <si>
-    <t>72,59%</t>
+    <t>72,79%</t>
   </si>
   <si>
     <t>22,04%</t>
   </si>
   <si>
-    <t>56,71%</t>
+    <t>56,28%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -235,7 +232,7 @@
     <t>52,19%</t>
   </si>
   <si>
-    <t>15,92%</t>
+    <t>16,0%</t>
   </si>
   <si>
     <t>84,98%</t>
@@ -253,7 +250,7 @@
     <t>15,02%</t>
   </si>
   <si>
-    <t>84,08%</t>
+    <t>84,0%</t>
   </si>
 </sst>
 </file>
@@ -665,7 +662,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A42CA22F-F245-44DF-8C00-06301B5B913D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D53C4E-7452-4402-B96B-F84F5BF913A2}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2853,7 +2850,7 @@
         <v>47</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>48</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -2868,13 +2865,13 @@
         <v>1883</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>50</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -2898,13 +2895,13 @@
         <v>1883</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>51</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -2960,7 +2957,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2984,7 +2981,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{591777C8-6585-49FB-AE4B-29F17820D341}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7E4F62-647D-4F1B-8B3E-A2FACCDE2311}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3001,7 +2998,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3910,7 +3907,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>21</v>
@@ -3938,7 +3935,7 @@
         <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>21</v>
@@ -5030,7 +5027,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -5060,7 +5057,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5081,7 +5078,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -5111,7 +5108,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5129,7 +5126,7 @@
         <v>19</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>21</v>
@@ -5159,7 +5156,7 @@
         <v>19</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>21</v>
@@ -5183,7 +5180,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -5213,7 +5210,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5269,7 +5266,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5293,7 +5290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{811CC315-C3BC-47DE-82C5-DF8FF9A665E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A95CC8-5EF3-4391-A72A-20C9FFDBD89D}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5310,7 +5307,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6168,7 +6165,7 @@
         <v>881</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
@@ -6270,7 +6267,7 @@
         <v>901</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
@@ -7343,7 +7340,7 @@
         <v>1054</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
@@ -7373,13 +7370,13 @@
         <v>2981</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>65</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7400,7 +7397,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -7430,7 +7427,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,7 +7442,7 @@
         <v>2731</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
@@ -7475,13 +7472,13 @@
         <v>2731</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>70</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7502,7 +7499,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -7532,7 +7529,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7588,7 +7585,7 @@
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P37AS2-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P37AS2-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3DF9BB72-3B6E-4C61-ACF5-BA698D66DE52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CA41813D-7C14-4365-823F-67CE22472A1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{1B6FF04C-E6A1-48B2-AD97-00D571D46182}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CE219C83-8332-4127-AF61-920E4800D12D}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1437" uniqueCount="70">
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2007 (Tasa respuesta: 0,14%)</t>
   </si>
@@ -200,9 +200,6 @@
   </si>
   <si>
     <t>Población según la persona que le indicó que se vacunase de la gripe / respuesta 2 en 2012 (Tasa respuesta: 0,12%)</t>
-  </si>
-  <si>
-    <t>55,59%</t>
   </si>
   <si>
     <t>26,42%</t>
@@ -662,7 +659,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2D53C4E-7452-4402-B96B-F84F5BF913A2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA9070-47B2-4C9F-B67C-6E17250F62FA}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2981,7 +2978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7E4F62-647D-4F1B-8B3E-A2FACCDE2311}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9823DAC4-AB18-44CB-BF90-788B1D04567F}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3101,15 +3098,17 @@
       <c r="C4" s="7">
         <v>0</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3127,15 +3126,17 @@
       <c r="M4" s="7">
         <v>0</v>
       </c>
-      <c r="N4" s="7"/>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3146,15 +3147,17 @@
       <c r="C5" s="7">
         <v>0</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3172,15 +3175,17 @@
       <c r="M5" s="7">
         <v>0</v>
       </c>
-      <c r="N5" s="7"/>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3189,17 +3194,19 @@
         <v>17</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D6" s="7">
+        <v>953</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3215,17 +3222,19 @@
         <v>27</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="7">
+        <v>953</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,15 +3245,17 @@
       <c r="C7" s="7">
         <v>0</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H7" s="7">
         <v>0</v>
@@ -3262,15 +3273,17 @@
       <c r="M7" s="7">
         <v>0</v>
       </c>
-      <c r="N7" s="7"/>
+      <c r="N7" s="7">
+        <v>0</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,17 +3292,19 @@
         <v>3</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D8" s="7">
+        <v>953</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3305,17 +3320,19 @@
         <v>27</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="N8" s="7">
+        <v>953</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3812,7 +3829,7 @@
         <v>12</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H19" s="7">
         <v>0</v>
@@ -3840,7 +3857,7 @@
         <v>12</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3861,7 +3878,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -3889,7 +3906,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3898,16 +3915,16 @@
         <v>17</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D21" s="7">
-        <v>3004</v>
+        <v>2052</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>21</v>
@@ -3926,16 +3943,16 @@
         <v>27</v>
       </c>
       <c r="M21" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N21" s="7">
-        <v>3004</v>
+        <v>2052</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>54</v>
+        <v>45</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>21</v>
@@ -3959,7 +3976,7 @@
         <v>12</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H22" s="7">
         <v>0</v>
@@ -3987,7 +4004,7 @@
         <v>12</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3996,10 +4013,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" s="7">
-        <v>3004</v>
+        <v>2052</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>21</v>
@@ -4024,10 +4041,10 @@
         <v>27</v>
       </c>
       <c r="M23" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N23" s="7">
-        <v>3004</v>
+        <v>2052</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>21</v>
@@ -5027,7 +5044,7 @@
         <v>12</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H44" s="7">
         <v>0</v>
@@ -5057,7 +5074,7 @@
         <v>12</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -5078,7 +5095,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -5108,7 +5125,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -5126,7 +5143,7 @@
         <v>19</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G46" s="7" t="s">
         <v>21</v>
@@ -5156,7 +5173,7 @@
         <v>19</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="Q46" s="7" t="s">
         <v>21</v>
@@ -5180,7 +5197,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -5210,7 +5227,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -5290,7 +5307,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73A95CC8-5EF3-4391-A72A-20C9FFDBD89D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38F8FC35-7314-423D-A090-2526BEAEFF90}">
   <dimension ref="A1:Q49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5307,7 +5324,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6165,7 +6182,7 @@
         <v>881</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>11</v>
@@ -6267,7 +6284,7 @@
         <v>901</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
         <v>11</v>
@@ -7340,7 +7357,7 @@
         <v>1054</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F44" s="7" t="s">
         <v>11</v>
@@ -7370,13 +7387,13 @@
         <v>2981</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P44" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="P44" s="7" t="s">
+      <c r="Q44" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7397,7 +7414,7 @@
         <v>12</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H45" s="7">
         <v>0</v>
@@ -7427,7 +7444,7 @@
         <v>12</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
@@ -7442,7 +7459,7 @@
         <v>2731</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46" s="7" t="s">
         <v>11</v>
@@ -7472,13 +7489,13 @@
         <v>2731</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7499,7 +7516,7 @@
         <v>12</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H47" s="7">
         <v>0</v>
@@ -7529,7 +7546,7 @@
         <v>12</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
